--- a/recuit/params.xlsx
+++ b/recuit/params.xlsx
@@ -12,16 +12,15 @@
     <sheet name="0,4" sheetId="3" r:id="rId3"/>
     <sheet name="0,2" sheetId="4" r:id="rId4"/>
     <sheet name="0,1" sheetId="5" r:id="rId5"/>
+    <sheet name="0,05" sheetId="6" r:id="rId6"/>
+    <sheet name="0,025" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="42">
-  <si>
-    <t>3550 28 18 24 0.56</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="41">
   <si>
     <t>0.64</t>
   </si>
@@ -187,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +194,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,13 +509,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="2">
         <v>1391812921</v>
@@ -523,19 +523,19 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>28</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>25</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>29</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>36</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>37</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>36</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>36</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
         <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>38</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>34</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>40</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>42</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>35</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>37</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>37</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>28</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,12 +1742,7 @@
         <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1771,13 +1766,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2">
         <v>1391812921</v>
@@ -1785,19 +1780,19 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1814,7 +1809,7 @@
         <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,7 +1826,7 @@
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,7 +1843,7 @@
         <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1865,7 +1860,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1882,7 +1877,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1916,7 +1911,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1933,7 +1928,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1967,7 +1962,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1984,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2001,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2018,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2035,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2052,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2069,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2086,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2103,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2137,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2154,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,7 +2166,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,7 +2183,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2205,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2222,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2239,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2256,7 +2251,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2290,7 +2285,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2307,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2341,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2358,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2375,7 +2370,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,7 +2387,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2409,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2426,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2443,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2460,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2477,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2528,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2545,7 +2540,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2579,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2596,7 +2591,7 @@
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2613,7 +2608,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,7 +2625,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2647,7 +2642,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2664,7 +2659,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,7 +2676,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2698,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2715,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2732,7 +2727,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,7 +2744,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2766,7 +2761,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2800,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2817,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2834,7 +2829,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2868,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2885,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2902,7 +2897,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2919,7 +2914,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2936,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2953,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2987,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3004,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3021,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3038,7 +3033,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3055,7 +3050,7 @@
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3072,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3089,7 +3084,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3106,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3123,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3140,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3157,7 +3152,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3174,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3191,7 +3186,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3208,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3225,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3242,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3250,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,13 +3260,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2">
         <v>1391812921</v>
@@ -3279,19 +3274,19 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,7 +3303,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,7 +3320,7 @@
         <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3342,7 +3337,7 @@
         <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3359,7 +3354,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3393,7 +3388,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,7 +3405,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3444,7 +3439,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,7 +3473,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,7 +3490,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3524,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3546,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,7 +3575,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,7 +3592,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,7 +3626,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,7 +3643,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,7 +3660,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,7 +3677,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3699,7 +3694,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,7 +3711,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3733,7 +3728,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,7 +3745,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3767,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,7 +3796,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,7 +3813,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3835,7 +3830,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,7 +3881,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,7 +3898,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,7 +3915,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,7 +4000,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,7 +4034,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,7 +4051,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,7 +4068,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4090,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,7 +4102,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4124,7 +4119,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,7 +4136,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4158,7 +4153,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,7 +4170,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4192,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,7 +4221,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,7 +4238,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4260,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4277,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4294,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4311,7 +4306,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4328,7 +4323,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,7 +4340,7 @@
         <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,7 +4357,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4379,7 +4374,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4396,7 +4391,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,7 +4408,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4443,7 +4438,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4453,13 +4448,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2">
         <v>1391812921</v>
@@ -4467,19 +4462,19 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4496,7 +4491,7 @@
         <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4513,7 +4508,7 @@
         <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4530,7 +4525,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4547,7 +4542,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4564,7 +4559,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4581,7 +4576,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4598,7 +4593,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4615,7 +4610,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4632,7 +4627,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4649,7 +4644,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4666,7 +4661,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4683,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4700,7 +4695,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4717,7 +4712,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4734,7 +4729,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4751,7 +4746,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4768,7 +4763,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4785,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4802,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4819,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4836,7 +4831,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4853,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4870,7 +4865,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4887,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4904,7 +4899,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4921,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4938,7 +4933,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4955,7 +4950,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4972,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4989,7 +4984,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5006,7 +5001,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5023,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5040,7 +5035,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,7 +5052,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5108,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5125,7 +5120,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5142,7 +5137,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5159,7 +5154,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5176,7 +5171,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5193,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5210,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5227,7 +5222,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,7 +5239,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,7 +5256,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5278,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5295,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5312,7 +5307,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5346,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5356,10 +5351,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A115" sqref="A115:E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,13 +5364,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2">
         <v>1391812921</v>
@@ -5383,19 +5378,19 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5412,7 +5407,7 @@
         <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5429,7 +5424,7 @@
         <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5446,7 +5441,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5463,7 +5458,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,7 +5475,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,7 +5492,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5514,7 +5509,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5531,7 +5526,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5548,7 +5543,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5565,7 +5560,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5582,7 +5577,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5599,7 +5594,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5616,7 +5611,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5633,7 +5628,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5650,7 +5645,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5667,7 +5662,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5684,7 +5679,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5701,7 +5696,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5718,7 +5713,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5735,7 +5730,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5752,7 +5747,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5786,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5803,7 +5798,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5820,7 +5815,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5837,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5854,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5871,7 +5866,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5888,7 +5883,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5905,7 +5900,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5922,7 +5917,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5939,7 +5934,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5956,7 +5951,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5973,7 +5968,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -5990,7 +5985,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6007,7 +6002,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6024,7 +6019,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -6041,7 +6036,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -6058,7 +6053,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6075,7 +6070,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -6092,7 +6087,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6109,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -6126,7 +6121,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -6143,7 +6138,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6160,7 +6155,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -6177,7 +6172,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -6194,7 +6189,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -6211,7 +6206,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -6228,7 +6223,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -6245,7 +6240,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -6262,7 +6257,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -6279,7 +6274,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -6296,7 +6291,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -6313,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -6330,7 +6325,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -6347,7 +6342,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -6364,171 +6359,2139 @@
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1391812921</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>250</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>300</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>350</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>400</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>450</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>500</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>550</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>600</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>650</v>
+      </c>
+      <c r="B15" s="1">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>700</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>750</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>800</v>
+      </c>
+      <c r="B18" s="1">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>850</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>900</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>950</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B29" s="1">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B32" s="1">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B33" s="1">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B36" s="1">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1750</v>
+      </c>
+      <c r="B37" s="1">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B38" s="1">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1850</v>
+      </c>
+      <c r="B39" s="1">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B40" s="1">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B41" s="1">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B44" s="1">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2150</v>
+      </c>
+      <c r="B45" s="1">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2250</v>
+      </c>
+      <c r="B47" s="1">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B48" s="1">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2350</v>
+      </c>
+      <c r="B49" s="1">
+        <v>26</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2400</v>
+      </c>
+      <c r="B50" s="1">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2450</v>
+      </c>
+      <c r="B51" s="1">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B52" s="1">
+        <v>22</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2550</v>
+      </c>
+      <c r="B53" s="1">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B54" s="1">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B55" s="1">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1391812921</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1">
+        <v>148</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1">
+        <v>96</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>250</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>300</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>350</v>
+      </c>
+      <c r="B9" s="1">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>400</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>450</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>500</v>
+      </c>
+      <c r="B12" s="1">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>550</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>600</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>650</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>700</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>750</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>800</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>850</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>900</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>950</v>
+      </c>
+      <c r="B21" s="1">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B24" s="1">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B27" s="1">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B28" s="1">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B30" s="1">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B34" s="1">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B35" s="1">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1750</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B38" s="1">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1850</v>
+      </c>
+      <c r="B39" s="1">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B40" s="1">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B41" s="1">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2150</v>
+      </c>
+      <c r="B45" s="1">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B46" s="1">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2250</v>
+      </c>
+      <c r="B47" s="1">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B48" s="1">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2350</v>
+      </c>
+      <c r="B49" s="1">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2400</v>
+      </c>
+      <c r="B50" s="1">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2450</v>
+      </c>
+      <c r="B51" s="1">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B52" s="1">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2550</v>
+      </c>
+      <c r="B53" s="1">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B54" s="1">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B55" s="1">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B56" s="1">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2750</v>
+      </c>
+      <c r="B57" s="1">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2800</v>
+      </c>
+      <c r="B58" s="1">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2850</v>
+      </c>
+      <c r="B59" s="1">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>40</v>
+      <c r="A60" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B60" s="1">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
       </c>
       <c r="D60" s="1">
-        <v>1391812921</v>
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>23</v>
+      <c r="A61" s="1">
+        <v>2950</v>
+      </c>
+      <c r="B61" s="1">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="B62" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>100</v>
+        <v>3050</v>
       </c>
       <c r="B63" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>150</v>
+        <v>3100</v>
       </c>
       <c r="B64" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>200</v>
+        <v>3150</v>
       </c>
       <c r="B65" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>250</v>
+        <v>3200</v>
       </c>
       <c r="B66" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>300</v>
+        <v>3250</v>
       </c>
       <c r="B67" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>350</v>
+        <v>3300</v>
       </c>
       <c r="B68" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>400</v>
+        <v>3350</v>
       </c>
       <c r="B69" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
         <v>5</v>
-      </c>
-      <c r="D69" s="1">
-        <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>33</v>
@@ -6536,84 +8499,84 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>450</v>
+        <v>3400</v>
       </c>
       <c r="B70" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>500</v>
+        <v>3450</v>
       </c>
       <c r="B71" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C71" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>550</v>
+        <v>3500</v>
       </c>
       <c r="B72" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>600</v>
+        <v>3550</v>
       </c>
       <c r="B73" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>650</v>
+        <v>3600</v>
       </c>
       <c r="B74" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>29</v>
@@ -6621,27 +8584,27 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>700</v>
+        <v>3650</v>
       </c>
       <c r="B75" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>750</v>
+        <v>3700</v>
       </c>
       <c r="B76" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -6650,46 +8613,46 @@
         <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>800</v>
+        <v>3750</v>
       </c>
       <c r="B77" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>850</v>
+        <v>3800</v>
       </c>
       <c r="B78" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>900</v>
+        <v>3850</v>
       </c>
       <c r="B79" s="1">
         <v>19</v>
@@ -6698,1962 +8661,27 @@
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>950</v>
+        <v>3900</v>
       </c>
       <c r="B80" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B81" s="1">
-        <v>8</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1">
-        <v>7</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>1050</v>
-      </c>
-      <c r="B82" s="1">
-        <v>25</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
-        <v>6</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>1100</v>
-      </c>
-      <c r="B83" s="1">
-        <v>15</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <v>7</v>
-      </c>
-      <c r="E83" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>1150</v>
-      </c>
-      <c r="B84" s="1">
-        <v>14</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <v>6</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>1200</v>
-      </c>
-      <c r="B85" s="1">
-        <v>13</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1">
-        <v>5</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>1250</v>
-      </c>
-      <c r="B86" s="1">
-        <v>15</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
-        <v>5</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>1300</v>
-      </c>
-      <c r="B87" s="1">
-        <v>10</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
-        <v>5</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>1350</v>
-      </c>
-      <c r="B88" s="1">
-        <v>18</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1">
-        <v>6</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>1400</v>
-      </c>
-      <c r="B89" s="1">
-        <v>12</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>1450</v>
-      </c>
-      <c r="B90" s="1">
-        <v>16</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
-        <v>4</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B91" s="1">
-        <v>13</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
-        <v>6</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>1550</v>
-      </c>
-      <c r="B92" s="1">
-        <v>16</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
-        <v>6</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>1600</v>
-      </c>
-      <c r="B93" s="1">
-        <v>20</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1">
-        <v>4</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>1650</v>
-      </c>
-      <c r="B94" s="1">
-        <v>20</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>1700</v>
-      </c>
-      <c r="B95" s="1">
-        <v>14</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-      <c r="D95" s="1">
-        <v>6</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>1750</v>
-      </c>
-      <c r="B96" s="1">
-        <v>17</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1">
-        <v>4</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B97" s="1">
-        <v>17</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1">
-        <v>6</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>1850</v>
-      </c>
-      <c r="B98" s="1">
-        <v>24</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-      <c r="D98" s="1">
-        <v>6</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>1900</v>
-      </c>
-      <c r="B99" s="1">
-        <v>18</v>
-      </c>
-      <c r="C99" s="1">
-        <v>3</v>
-      </c>
-      <c r="D99" s="1">
-        <v>7</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>1950</v>
-      </c>
-      <c r="B100" s="1">
-        <v>17</v>
-      </c>
-      <c r="C100" s="1">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1">
-        <v>7</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B101" s="1">
-        <v>17</v>
-      </c>
-      <c r="C101" s="1">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1">
-        <v>7</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B102" s="1">
-        <v>14</v>
-      </c>
-      <c r="C102" s="1">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>2100</v>
-      </c>
-      <c r="B103" s="1">
-        <v>16</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1">
-        <v>7</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>2150</v>
-      </c>
-      <c r="B104" s="1">
-        <v>14</v>
-      </c>
-      <c r="C104" s="1">
-        <v>2</v>
-      </c>
-      <c r="D104" s="1">
-        <v>11</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>2200</v>
-      </c>
-      <c r="B105" s="1">
-        <v>14</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1">
-        <v>8</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>2250</v>
-      </c>
-      <c r="B106" s="1">
-        <v>13</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1">
-        <v>7</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>2300</v>
-      </c>
-      <c r="B107" s="1">
-        <v>18</v>
-      </c>
-      <c r="C107" s="1">
-        <v>2</v>
-      </c>
-      <c r="D107" s="1">
-        <v>6</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>2350</v>
-      </c>
-      <c r="B108" s="1">
-        <v>26</v>
-      </c>
-      <c r="C108" s="1">
-        <v>2</v>
-      </c>
-      <c r="D108" s="1">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>2400</v>
-      </c>
-      <c r="B109" s="1">
-        <v>17</v>
-      </c>
-      <c r="C109" s="1">
-        <v>4</v>
-      </c>
-      <c r="D109" s="1">
-        <v>7</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>2450</v>
-      </c>
-      <c r="B110" s="1">
-        <v>18</v>
-      </c>
-      <c r="C110" s="1">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1">
-        <v>7</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>2500</v>
-      </c>
-      <c r="B111" s="1">
-        <v>22</v>
-      </c>
-      <c r="C111" s="1">
-        <v>3</v>
-      </c>
-      <c r="D111" s="1">
-        <v>12</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>2550</v>
-      </c>
-      <c r="B112" s="1">
-        <v>23</v>
-      </c>
-      <c r="C112" s="1">
-        <v>7</v>
-      </c>
-      <c r="D112" s="1">
-        <v>11</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>2600</v>
-      </c>
-      <c r="B113" s="1">
-        <v>15</v>
-      </c>
-      <c r="C113" s="1">
-        <v>7</v>
-      </c>
-      <c r="D113" s="1">
-        <v>13</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>2650</v>
-      </c>
-      <c r="B114" s="1">
-        <v>20</v>
-      </c>
-      <c r="C114" s="1">
-        <v>7</v>
-      </c>
-      <c r="D114" s="1">
-        <v>14</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D115" s="1">
-        <v>1391812921</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>50</v>
-      </c>
-      <c r="B117" s="1">
-        <v>28</v>
-      </c>
-      <c r="C117" s="1">
-        <v>94</v>
-      </c>
-      <c r="D117" s="1">
-        <v>148</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>100</v>
-      </c>
-      <c r="B118" s="1">
-        <v>26</v>
-      </c>
-      <c r="C118" s="1">
-        <v>69</v>
-      </c>
-      <c r="D118" s="1">
-        <v>96</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>150</v>
-      </c>
-      <c r="B119" s="1">
-        <v>29</v>
-      </c>
-      <c r="C119" s="1">
-        <v>47</v>
-      </c>
-      <c r="D119" s="1">
-        <v>75</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>200</v>
-      </c>
-      <c r="B120" s="1">
-        <v>21</v>
-      </c>
-      <c r="C120" s="1">
-        <v>41</v>
-      </c>
-      <c r="D120" s="1">
-        <v>56</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>250</v>
-      </c>
-      <c r="B121" s="1">
-        <v>22</v>
-      </c>
-      <c r="C121" s="1">
-        <v>25</v>
-      </c>
-      <c r="D121" s="1">
-        <v>44</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>300</v>
-      </c>
-      <c r="B122" s="1">
-        <v>18</v>
-      </c>
-      <c r="C122" s="1">
-        <v>24</v>
-      </c>
-      <c r="D122" s="1">
-        <v>28</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>350</v>
-      </c>
-      <c r="B123" s="1">
-        <v>22</v>
-      </c>
-      <c r="C123" s="1">
-        <v>20</v>
-      </c>
-      <c r="D123" s="1">
-        <v>28</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>400</v>
-      </c>
-      <c r="B124" s="1">
-        <v>18</v>
-      </c>
-      <c r="C124" s="1">
-        <v>12</v>
-      </c>
-      <c r="D124" s="1">
-        <v>23</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>450</v>
-      </c>
-      <c r="B125" s="1">
-        <v>15</v>
-      </c>
-      <c r="C125" s="1">
-        <v>11</v>
-      </c>
-      <c r="D125" s="1">
-        <v>19</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>500</v>
-      </c>
-      <c r="B126" s="1">
-        <v>19</v>
-      </c>
-      <c r="C126" s="1">
-        <v>7</v>
-      </c>
-      <c r="D126" s="1">
-        <v>15</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>550</v>
-      </c>
-      <c r="B127" s="1">
-        <v>13</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2</v>
-      </c>
-      <c r="D127" s="1">
-        <v>11</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>600</v>
-      </c>
-      <c r="B128" s="1">
-        <v>11</v>
-      </c>
-      <c r="C128" s="1">
-        <v>2</v>
-      </c>
-      <c r="D128" s="1">
-        <v>6</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>650</v>
-      </c>
-      <c r="B129" s="1">
-        <v>13</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2</v>
-      </c>
-      <c r="D129" s="1">
-        <v>8</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>700</v>
-      </c>
-      <c r="B130" s="1">
-        <v>12</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2</v>
-      </c>
-      <c r="D130" s="1">
-        <v>6</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>750</v>
-      </c>
-      <c r="B131" s="1">
-        <v>14</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2</v>
-      </c>
-      <c r="D131" s="1">
-        <v>6</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>800</v>
-      </c>
-      <c r="B132" s="1">
-        <v>14</v>
-      </c>
-      <c r="C132" s="1">
-        <v>2</v>
-      </c>
-      <c r="D132" s="1">
-        <v>7</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>850</v>
-      </c>
-      <c r="B133" s="1">
-        <v>14</v>
-      </c>
-      <c r="C133" s="1">
-        <v>2</v>
-      </c>
-      <c r="D133" s="1">
-        <v>6</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>900</v>
-      </c>
-      <c r="B134" s="1">
-        <v>18</v>
-      </c>
-      <c r="C134" s="1">
-        <v>3</v>
-      </c>
-      <c r="D134" s="1">
-        <v>7</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>950</v>
-      </c>
-      <c r="B135" s="1">
-        <v>22</v>
-      </c>
-      <c r="C135" s="1">
-        <v>2</v>
-      </c>
-      <c r="D135" s="1">
-        <v>11</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B136" s="1">
-        <v>18</v>
-      </c>
-      <c r="C136" s="1">
-        <v>2</v>
-      </c>
-      <c r="D136" s="1">
-        <v>8</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>1050</v>
-      </c>
-      <c r="B137" s="1">
-        <v>20</v>
-      </c>
-      <c r="C137" s="1">
-        <v>4</v>
-      </c>
-      <c r="D137" s="1">
-        <v>15</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>1100</v>
-      </c>
-      <c r="B138" s="1">
-        <v>11</v>
-      </c>
-      <c r="C138" s="1">
-        <v>6</v>
-      </c>
-      <c r="D138" s="1">
-        <v>11</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>1150</v>
-      </c>
-      <c r="B139" s="1">
-        <v>13</v>
-      </c>
-      <c r="C139" s="1">
-        <v>7</v>
-      </c>
-      <c r="D139" s="1">
-        <v>12</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>1200</v>
-      </c>
-      <c r="B140" s="1">
-        <v>13</v>
-      </c>
-      <c r="C140" s="1">
-        <v>4</v>
-      </c>
-      <c r="D140" s="1">
-        <v>12</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>1250</v>
-      </c>
-      <c r="B141" s="1">
-        <v>18</v>
-      </c>
-      <c r="C141" s="1">
-        <v>2</v>
-      </c>
-      <c r="D141" s="1">
-        <v>6</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>1300</v>
-      </c>
-      <c r="B142" s="1">
-        <v>14</v>
-      </c>
-      <c r="C142" s="1">
-        <v>1</v>
-      </c>
-      <c r="D142" s="1">
-        <v>9</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>1350</v>
-      </c>
-      <c r="B143" s="1">
-        <v>25</v>
-      </c>
-      <c r="C143" s="1">
-        <v>1</v>
-      </c>
-      <c r="D143" s="1">
-        <v>9</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>1400</v>
-      </c>
-      <c r="B144" s="1">
-        <v>18</v>
-      </c>
-      <c r="C144" s="1">
-        <v>5</v>
-      </c>
-      <c r="D144" s="1">
-        <v>10</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>1450</v>
-      </c>
-      <c r="B145" s="1">
-        <v>16</v>
-      </c>
-      <c r="C145" s="1">
-        <v>5</v>
-      </c>
-      <c r="D145" s="1">
-        <v>10</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B146" s="1">
-        <v>20</v>
-      </c>
-      <c r="C146" s="1">
-        <v>6</v>
-      </c>
-      <c r="D146" s="1">
-        <v>11</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>1550</v>
-      </c>
-      <c r="B147" s="1">
-        <v>14</v>
-      </c>
-      <c r="C147" s="1">
-        <v>6</v>
-      </c>
-      <c r="D147" s="1">
-        <v>12</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>1600</v>
-      </c>
-      <c r="B148" s="1">
-        <v>17</v>
-      </c>
-      <c r="C148" s="1">
-        <v>5</v>
-      </c>
-      <c r="D148" s="1">
-        <v>11</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>1650</v>
-      </c>
-      <c r="B149" s="1">
-        <v>18</v>
-      </c>
-      <c r="C149" s="1">
-        <v>5</v>
-      </c>
-      <c r="D149" s="1">
-        <v>9</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>1700</v>
-      </c>
-      <c r="B150" s="1">
-        <v>17</v>
-      </c>
-      <c r="C150" s="1">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1">
-        <v>9</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>1750</v>
-      </c>
-      <c r="B151" s="1">
-        <v>16</v>
-      </c>
-      <c r="C151" s="1">
-        <v>2</v>
-      </c>
-      <c r="D151" s="1">
-        <v>7</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B152" s="1">
-        <v>17</v>
-      </c>
-      <c r="C152" s="1">
-        <v>2</v>
-      </c>
-      <c r="D152" s="1">
-        <v>8</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>1850</v>
-      </c>
-      <c r="B153" s="1">
-        <v>19</v>
-      </c>
-      <c r="C153" s="1">
-        <v>3</v>
-      </c>
-      <c r="D153" s="1">
-        <v>11</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>1900</v>
-      </c>
-      <c r="B154" s="1">
-        <v>11</v>
-      </c>
-      <c r="C154" s="1">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1">
-        <v>6</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>1950</v>
-      </c>
-      <c r="B155" s="1">
-        <v>17</v>
-      </c>
-      <c r="C155" s="1">
-        <v>0</v>
-      </c>
-      <c r="D155" s="1">
-        <v>7</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B156" s="1">
-        <v>15</v>
-      </c>
-      <c r="C156" s="1">
-        <v>0</v>
-      </c>
-      <c r="D156" s="1">
-        <v>4</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B157" s="1">
-        <v>14</v>
-      </c>
-      <c r="C157" s="1">
-        <v>0</v>
-      </c>
-      <c r="D157" s="1">
-        <v>6</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>2100</v>
-      </c>
-      <c r="B158" s="1">
-        <v>12</v>
-      </c>
-      <c r="C158" s="1">
-        <v>2</v>
-      </c>
-      <c r="D158" s="1">
-        <v>6</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>2150</v>
-      </c>
-      <c r="B159" s="1">
-        <v>17</v>
-      </c>
-      <c r="C159" s="1">
-        <v>0</v>
-      </c>
-      <c r="D159" s="1">
-        <v>5</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>2200</v>
-      </c>
-      <c r="B160" s="1">
-        <v>13</v>
-      </c>
-      <c r="C160" s="1">
-        <v>0</v>
-      </c>
-      <c r="D160" s="1">
-        <v>6</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>2250</v>
-      </c>
-      <c r="B161" s="1">
-        <v>21</v>
-      </c>
-      <c r="C161" s="1">
-        <v>0</v>
-      </c>
-      <c r="D161" s="1">
-        <v>6</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>2300</v>
-      </c>
-      <c r="B162" s="1">
-        <v>20</v>
-      </c>
-      <c r="C162" s="1">
-        <v>0</v>
-      </c>
-      <c r="D162" s="1">
-        <v>4</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>2350</v>
-      </c>
-      <c r="B163" s="1">
-        <v>17</v>
-      </c>
-      <c r="C163" s="1">
-        <v>0</v>
-      </c>
-      <c r="D163" s="1">
-        <v>5</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>2400</v>
-      </c>
-      <c r="B164" s="1">
-        <v>16</v>
-      </c>
-      <c r="C164" s="1">
-        <v>0</v>
-      </c>
-      <c r="D164" s="1">
-        <v>6</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>2450</v>
-      </c>
-      <c r="B165" s="1">
-        <v>15</v>
-      </c>
-      <c r="C165" s="1">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1">
-        <v>5</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>2500</v>
-      </c>
-      <c r="B166" s="1">
-        <v>15</v>
-      </c>
-      <c r="C166" s="1">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1">
-        <v>7</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>2550</v>
-      </c>
-      <c r="B167" s="1">
-        <v>14</v>
-      </c>
-      <c r="C167" s="1">
-        <v>2</v>
-      </c>
-      <c r="D167" s="1">
-        <v>7</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>2600</v>
-      </c>
-      <c r="B168" s="1">
-        <v>16</v>
-      </c>
-      <c r="C168" s="1">
-        <v>2</v>
-      </c>
-      <c r="D168" s="1">
-        <v>6</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>2650</v>
-      </c>
-      <c r="B169" s="1">
-        <v>18</v>
-      </c>
-      <c r="C169" s="1">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1">
-        <v>8</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B170" s="1">
-        <v>15</v>
-      </c>
-      <c r="C170" s="1">
-        <v>4</v>
-      </c>
-      <c r="D170" s="1">
-        <v>8</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>2750</v>
-      </c>
-      <c r="B171" s="1">
-        <v>19</v>
-      </c>
-      <c r="C171" s="1">
-        <v>4</v>
-      </c>
-      <c r="D171" s="1">
-        <v>7</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>2800</v>
-      </c>
-      <c r="B172" s="1">
-        <v>17</v>
-      </c>
-      <c r="C172" s="1">
-        <v>3</v>
-      </c>
-      <c r="D172" s="1">
-        <v>8</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>2850</v>
-      </c>
-      <c r="B173" s="1">
-        <v>17</v>
-      </c>
-      <c r="C173" s="1">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1">
-        <v>7</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>2900</v>
-      </c>
-      <c r="B174" s="1">
-        <v>12</v>
-      </c>
-      <c r="C174" s="1">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1">
-        <v>6</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>2950</v>
-      </c>
-      <c r="B175" s="1">
-        <v>13</v>
-      </c>
-      <c r="C175" s="1">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1">
-        <v>5</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>3000</v>
-      </c>
-      <c r="B176" s="1">
-        <v>17</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1">
-        <v>6</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>3050</v>
-      </c>
-      <c r="B177" s="1">
-        <v>9</v>
-      </c>
-      <c r="C177" s="1">
-        <v>2</v>
-      </c>
-      <c r="D177" s="1">
-        <v>7</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>3100</v>
-      </c>
-      <c r="B178" s="1">
-        <v>16</v>
-      </c>
-      <c r="C178" s="1">
-        <v>2</v>
-      </c>
-      <c r="D178" s="1">
-        <v>6</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>3150</v>
-      </c>
-      <c r="B179" s="1">
-        <v>10</v>
-      </c>
-      <c r="C179" s="1">
-        <v>2</v>
-      </c>
-      <c r="D179" s="1">
-        <v>6</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>3200</v>
-      </c>
-      <c r="B180" s="1">
-        <v>14</v>
-      </c>
-      <c r="C180" s="1">
-        <v>2</v>
-      </c>
-      <c r="D180" s="1">
-        <v>7</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>3250</v>
-      </c>
-      <c r="B181" s="1">
-        <v>19</v>
-      </c>
-      <c r="C181" s="1">
-        <v>2</v>
-      </c>
-      <c r="D181" s="1">
-        <v>9</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>3300</v>
-      </c>
-      <c r="B182" s="1">
-        <v>17</v>
-      </c>
-      <c r="C182" s="1">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1">
-        <v>6</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>3350</v>
-      </c>
-      <c r="B183" s="1">
-        <v>10</v>
-      </c>
-      <c r="C183" s="1">
-        <v>1</v>
-      </c>
-      <c r="D183" s="1">
-        <v>5</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>3400</v>
-      </c>
-      <c r="B184" s="1">
-        <v>19</v>
-      </c>
-      <c r="C184" s="1">
-        <v>1</v>
-      </c>
-      <c r="D184" s="1">
-        <v>8</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>3450</v>
-      </c>
-      <c r="B185" s="1">
-        <v>15</v>
-      </c>
-      <c r="C185" s="1">
-        <v>4</v>
-      </c>
-      <c r="D185" s="1">
-        <v>12</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>3500</v>
-      </c>
-      <c r="B186" s="1">
-        <v>19</v>
-      </c>
-      <c r="C186" s="1">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1">
-        <v>10</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>3550</v>
-      </c>
-      <c r="B187" s="1">
-        <v>17</v>
-      </c>
-      <c r="C187" s="1">
-        <v>0</v>
-      </c>
-      <c r="D187" s="1">
-        <v>6</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>3600</v>
-      </c>
-      <c r="B188" s="1">
-        <v>13</v>
-      </c>
-      <c r="C188" s="1">
-        <v>0</v>
-      </c>
-      <c r="D188" s="1">
-        <v>5</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>3650</v>
-      </c>
-      <c r="B189" s="1">
-        <v>16</v>
-      </c>
-      <c r="C189" s="1">
-        <v>0</v>
-      </c>
-      <c r="D189" s="1">
-        <v>5</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>3700</v>
-      </c>
-      <c r="B190" s="1">
-        <v>10</v>
-      </c>
-      <c r="C190" s="1">
-        <v>0</v>
-      </c>
-      <c r="D190" s="1">
-        <v>4</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>3750</v>
-      </c>
-      <c r="B191" s="1">
-        <v>10</v>
-      </c>
-      <c r="C191" s="1">
-        <v>0</v>
-      </c>
-      <c r="D191" s="1">
-        <v>6</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>3800</v>
-      </c>
-      <c r="B192" s="1">
-        <v>10</v>
-      </c>
-      <c r="C192" s="1">
-        <v>0</v>
-      </c>
-      <c r="D192" s="1">
-        <v>5</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>3850</v>
-      </c>
-      <c r="B193" s="1">
-        <v>19</v>
-      </c>
-      <c r="C193" s="1">
-        <v>0</v>
-      </c>
-      <c r="D193" s="1">
-        <v>5</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>3900</v>
-      </c>
-      <c r="B194" s="1">
-        <v>18</v>
-      </c>
-      <c r="C194" s="1">
-        <v>3</v>
-      </c>
-      <c r="D194" s="1">
-        <v>8</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/recuit/params.xlsx
+++ b/recuit/params.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1,6" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="0,1" sheetId="5" r:id="rId5"/>
     <sheet name="0,05" sheetId="6" r:id="rId6"/>
     <sheet name="0,025" sheetId="7" r:id="rId7"/>
+    <sheet name="fmin" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="42">
   <si>
     <t>0.64</t>
   </si>
@@ -144,6 +145,9 @@
   <si>
     <t>0.025</t>
   </si>
+  <si>
+    <t>Trial</t>
+  </si>
 </sst>
 </file>
 
@@ -207,6 +211,4769 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1,6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$B$2:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$C$2:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$D$2:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$E$2:$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$F$2:$F$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$G$2:$G$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$H$2:$H$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="167932288"/>
+        <c:axId val="167933824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="167932288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167933824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167933824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167932288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2067714463189222E-2"/>
+          <c:y val="1.4202524978847946E-2"/>
+          <c:w val="0.83688110510542357"/>
+          <c:h val="0.89706458793490906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmin!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmin!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmin!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="169816832"/>
+        <c:axId val="169818368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="169816832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="169818368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="169818368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="169816832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283482</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>531131</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>93435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +6523,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A87" sqref="A3:A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3249,8 +8016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,8 +9204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5353,8 +10120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:E194"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6371,8 +11138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7320,8 +12087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8687,4 +13454,1861 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1">
+        <v>77</v>
+      </c>
+      <c r="F2" s="1">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>300</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>350</v>
+      </c>
+      <c r="B8" s="1">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>400</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>450</v>
+      </c>
+      <c r="B10" s="1">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>500</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>550</v>
+      </c>
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>600</v>
+      </c>
+      <c r="B13" s="1">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>650</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>700</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>750</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>800</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>850</v>
+      </c>
+      <c r="B18" s="1">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>900</v>
+      </c>
+      <c r="B19" s="1">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>950</v>
+      </c>
+      <c r="B20" s="1">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B22" s="1">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B23" s="1">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B25" s="1">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B26" s="1">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B27" s="1">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B30" s="1">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B31" s="1">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B35" s="1">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1750</v>
+      </c>
+      <c r="B36" s="1">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B37" s="1">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1850</v>
+      </c>
+      <c r="B38" s="1">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B39" s="1">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B40" s="1">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B42" s="1">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2150</v>
+      </c>
+      <c r="B44" s="1">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B45" s="1">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2250</v>
+      </c>
+      <c r="B46" s="1">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B47" s="1">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2350</v>
+      </c>
+      <c r="B48" s="1">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2400</v>
+      </c>
+      <c r="B49" s="1">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2450</v>
+      </c>
+      <c r="B50" s="1">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B51" s="1">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2550</v>
+      </c>
+      <c r="B52" s="1">
+        <v>28</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>7</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B53" s="1">
+        <v>22</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>7</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B54" s="1">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>7</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B55" s="1">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2750</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2800</v>
+      </c>
+      <c r="B57" s="1">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2850</v>
+      </c>
+      <c r="B58" s="1">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B59" s="1">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>2950</v>
+      </c>
+      <c r="B60" s="1">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B61" s="1">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>3050</v>
+      </c>
+      <c r="B62" s="1">
+        <v>28</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>3100</v>
+      </c>
+      <c r="B63" s="1">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>3150</v>
+      </c>
+      <c r="B64" s="1">
+        <v>26</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B65" s="1">
+        <v>32</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>3250</v>
+      </c>
+      <c r="B66" s="1">
+        <v>31</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>3300</v>
+      </c>
+      <c r="B67" s="1">
+        <v>26</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>3350</v>
+      </c>
+      <c r="B68" s="1">
+        <v>26</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>3400</v>
+      </c>
+      <c r="B69" s="1">
+        <v>28</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>3450</v>
+      </c>
+      <c r="B70" s="1">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>3500</v>
+      </c>
+      <c r="B71" s="1">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>3550</v>
+      </c>
+      <c r="B72" s="1">
+        <v>18</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>3650</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>3700</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>3750</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>3800</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>3850</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>3900</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="H79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>3950</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>4050</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>4100</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>4150</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>4200</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>4250</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/recuit/params.xlsx
+++ b/recuit/params.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1,6" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="0,05" sheetId="6" r:id="rId6"/>
     <sheet name="0,025" sheetId="7" r:id="rId7"/>
     <sheet name="fmin" sheetId="8" r:id="rId8"/>
+    <sheet name="acc" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="42">
   <si>
     <t>0.64</t>
   </si>
@@ -190,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +200,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3673,11 +3677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167932288"/>
-        <c:axId val="167933824"/>
+        <c:axId val="165704064"/>
+        <c:axId val="165705600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167932288"/>
+        <c:axId val="165704064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3687,7 +3691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167933824"/>
+        <c:crossAx val="165705600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3695,7 +3699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167933824"/>
+        <c:axId val="165705600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,7 +3710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167932288"/>
+        <c:crossAx val="165704064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4854,11 +4858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169816832"/>
-        <c:axId val="169818368"/>
+        <c:axId val="166213888"/>
+        <c:axId val="166215680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169816832"/>
+        <c:axId val="166213888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4868,7 +4872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169818368"/>
+        <c:crossAx val="166215680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4876,7 +4880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169818368"/>
+        <c:axId val="166215680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,7 +4891,5629 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169816832"/>
+        <c:crossAx val="166213888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1,6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$B$2:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$C$2:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$D$2:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$E$2:$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$F$2:$F$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$G$2:$G$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$H$2:$H$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53828992"/>
+        <c:axId val="53830784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53828992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53830784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53830784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53828992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$G$2:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>acc!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>acc!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>acc!$H$2:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="172067840"/>
+        <c:axId val="172086016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="172067840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172086016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172086016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172067840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4960,6 +10586,71 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5266,7 +10957,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6523,7 +12214,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A87" sqref="A3:A87"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8016,8 +13707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9204,8 +14895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10120,8 +15811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11138,8 +16829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12087,8 +17778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13460,8 +19151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15311,4 +21002,1860 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>300</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>350</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>400</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>450</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>500</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>550</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>600</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>650</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>700</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>750</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>800</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>850</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>900</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>950</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1750</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1850</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2150</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2250</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2350</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2400</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2450</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2550</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2750</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2800</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2850</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>2950</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>3050</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>3100</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>3150</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>3250</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>3300</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>3350</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>3400</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>3450</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>3500</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>3550</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>3650</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>3700</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>3750</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>3800</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>3850</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>3900</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>3950</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>4050</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>4100</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>4150</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>4200</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>4250</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>